--- a/public/master/sample_tpa.xlsx
+++ b/public/master/sample_tpa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8677C322-8BE3-467E-889B-0909270B7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B468C9-909D-4DA4-B785-AD81C62D52DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>NAMA TPA</t>
   </si>
   <si>
-    <t>LOKASI (DESA)</t>
-  </si>
-  <si>
     <t>SUMBER ANGGARAN</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>TAHUN KONSTRUKSI</t>
   </si>
   <si>
-    <t>LOKASI (KECAMATAN)</t>
-  </si>
-  <si>
     <t>BALAI AGUNG</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>Tidak Baik</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KELURAHAN/DESA</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -645,38 +645,38 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -690,46 +690,46 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="99.75" x14ac:dyDescent="0.25">
@@ -737,22 +737,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2">
         <v>1996</v>
@@ -764,20 +764,20 @@
         <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2">
         <v>0.4</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="71.25" x14ac:dyDescent="0.25">
@@ -785,18 +785,18 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2">
         <v>1996</v>
@@ -808,7 +808,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2">
         <v>5.5</v>
@@ -817,13 +817,13 @@
         <v>0.4</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="57" x14ac:dyDescent="0.25">
@@ -831,22 +831,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="2">
         <v>1996</v>
@@ -858,7 +858,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2">
         <v>5.5</v>
@@ -867,13 +867,13 @@
         <v>0.4</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="57" x14ac:dyDescent="0.25">
@@ -881,22 +881,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2">
         <v>1996</v>
@@ -908,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2">
         <v>5.5</v>
@@ -917,13 +917,13 @@
         <v>0.4</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="57" x14ac:dyDescent="0.25">
@@ -931,22 +931,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2">
         <v>1996</v>
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2">
         <v>5.5</v>
@@ -967,13 +967,13 @@
         <v>0.4</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
